--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D85AC-C3B0-4479-B6AD-F32586786471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BE567-39BE-45B2-8AD3-D1A797355D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +57,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>Empty</t>
-  </si>
-  <si>
     <t>Combat Axe</t>
   </si>
   <si>
@@ -286,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Empty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,13 +620,6 @@
     <t>weapon_winfield_m1876_centennial</t>
   </si>
   <si>
-    <t>weapon_empty</t>
-  </si>
-  <si>
-    <t>weapon_empty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>weapon_bornheim_no_3_extended</t>
   </si>
   <si>
@@ -830,10 +816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tool_empty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Aid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -859,13 +841,6 @@
   </si>
   <si>
     <t>Trap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_empty</t>
-  </si>
-  <si>
-    <t>consumable_empty</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -994,10 +969,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}" name="テーブル1" displayName="テーブル1" ref="A1:G76" totalsRowShown="0">
-  <autoFilter ref="A1:G76" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G76">
-    <sortCondition ref="A1:A76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}" name="テーブル1" displayName="テーブル1" ref="A1:G75" totalsRowShown="0">
+  <autoFilter ref="A1:G75" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
+    <sortCondition ref="A1:A75"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9DC508E2-45A8-48F1-982F-B4DAFEC7311D}" name="id"/>
@@ -1030,10 +1005,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}" name="テーブル13" displayName="テーブル13" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}" name="テーブル13" displayName="テーブル13" ref="A1:C30" totalsRowShown="0">
+  <autoFilter ref="A1:C30" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition ref="A1:A29"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2668D639-FFC3-46C5-9100-673C129D42F2}" name="id"/>
@@ -1045,8 +1020,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}" name="テーブル3" displayName="テーブル3" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}" name="テーブル3" displayName="テーブル3" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3FB9CF39-4A4A-476D-AC75-148000FBD738}" name="id"/>
     <tableColumn id="2" xr3:uid="{3D97AE95-4DF1-4C4E-8A7F-4D5A410E6A3C}" name="full_name"/>
@@ -1059,10 +1034,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{96026C8F-0053-4D3A-8650-D6BB03E17072}" name="テーブル36" displayName="テーブル36" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{96026C8F-0053-4D3A-8650-D6BB03E17072}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
-    <sortCondition ref="A1:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{96026C8F-0053-4D3A-8650-D6BB03E17072}" name="テーブル36" displayName="テーブル36" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{96026C8F-0053-4D3A-8650-D6BB03E17072}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+    <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E8B1D6A7-5C21-44B6-824C-083C4E6FDF35}" name="id"/>
@@ -1074,10 +1049,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}" name="テーブル35" displayName="テーブル35" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
-    <sortCondition ref="E1:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}" name="テーブル35" displayName="テーブル35" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="E1:E22"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7D421A52-B484-47CE-B10D-9CE2404B800F}" name="id"/>
@@ -1091,10 +1066,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{249C3092-A0DD-41C3-9BE6-0929CF500C56}" name="テーブル357" displayName="テーブル357" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{249C3092-A0DD-41C3-9BE6-0929CF500C56}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-    <sortCondition ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{249C3092-A0DD-41C3-9BE6-0929CF500C56}" name="テーブル357" displayName="テーブル357" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{249C3092-A0DD-41C3-9BE6-0929CF500C56}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{21D2B571-8DF3-490E-A7F7-50C1B43915C3}" name="id"/>
@@ -1402,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1433,30 +1408,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1467,19 +1442,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1490,19 +1465,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1513,19 +1488,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1536,19 +1511,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1559,19 +1534,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1582,19 +1557,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1605,19 +1580,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1628,19 +1603,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1651,19 +1626,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1674,19 +1649,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1697,19 +1672,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1720,19 +1695,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>600</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1743,19 +1718,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>750</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1766,19 +1741,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>790</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1789,22 +1764,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1812,42 +1787,42 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>397</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1858,19 +1833,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1881,42 +1856,42 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>422</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1927,19 +1902,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1950,7 +1925,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -1959,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="D24">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1973,19 +1948,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1996,19 +1971,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2019,19 +1994,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>164</v>
+        <v>490</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2042,19 +2017,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>490</v>
+        <v>1250</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2065,19 +2040,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>1250</v>
+        <v>540</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2088,19 +2063,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2111,19 +2086,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2134,19 +2109,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2157,19 +2132,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2180,19 +2155,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>550</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2203,19 +2178,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2226,19 +2201,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2249,7 +2224,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -2258,10 +2233,10 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2272,19 +2247,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2295,7 +2270,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -2304,10 +2279,10 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2318,19 +2293,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2341,19 +2316,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2364,19 +2339,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D42">
-        <v>53</v>
+        <v>1015</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2387,19 +2362,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>1015</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2410,19 +2385,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2433,19 +2408,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2456,19 +2431,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2479,19 +2454,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2502,7 +2477,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -2511,10 +2486,10 @@
         <v>49</v>
       </c>
       <c r="D48">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2525,7 +2500,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2534,10 +2509,10 @@
         <v>50</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2548,19 +2523,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2571,7 +2546,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -2580,10 +2555,10 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2594,19 +2569,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2617,19 +2592,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2640,19 +2615,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2663,19 +2638,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2686,7 +2661,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -2695,10 +2670,10 @@
         <v>18</v>
       </c>
       <c r="D56">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2709,7 +2684,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -2718,10 +2693,10 @@
         <v>19</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2732,19 +2707,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2755,19 +2730,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2778,19 +2753,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2801,19 +2776,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D61">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2824,19 +2799,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2847,19 +2822,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2870,7 +2845,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
@@ -2879,10 +2854,10 @@
         <v>32</v>
       </c>
       <c r="D64">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2893,19 +2868,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2916,19 +2891,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2939,19 +2914,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D67">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2962,19 +2937,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2985,19 +2960,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D69">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3008,19 +2983,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3031,19 +3006,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3054,19 +3029,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3077,19 +3052,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3100,19 +3075,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3123,7 +3098,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
@@ -3135,35 +3110,12 @@
         <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>223</v>
-      </c>
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76">
-        <v>277</v>
-      </c>
-      <c r="E76" t="s">
-        <v>176</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3133,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3206,41 +3158,41 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3254,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD4DE2-0449-4D45-A184-1A352F0E2A91}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3268,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3279,332 +3231,321 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3618,10 +3559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A40719F-CCE4-44A7-B269-AD8980D5404D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3646,89 +3587,89 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>100</v>
@@ -3736,33 +3677,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>101</v>
@@ -3770,169 +3711,169 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>108</v>
@@ -3940,36 +3881,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3983,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20EB0D6-A63A-4D0E-9024-0E89563F89B3}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4008,101 +3932,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFA5AD-CA52-4628-BE8A-F6A3094FEB18}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4144,114 +4057,114 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>126</v>
@@ -4260,44 +4173,44 @@
         <v>126</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -4311,15 +4224,15 @@
         <v>119</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
@@ -4328,44 +4241,44 @@
         <v>121</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -4379,15 +4292,15 @@
         <v>125</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>127</v>
@@ -4396,100 +4309,100 @@
         <v>127</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
@@ -4498,27 +4411,10 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4532,10 +4428,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D404AD-48DD-4B7F-BC1F-812A5D25AD44}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4558,68 +4454,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BE567-39BE-45B2-8AD3-D1A797355D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62486B-DA1D-4193-8F7C-F4C1B961C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -901,6 +901,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1379,17 +1383,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1503,7 +1505,7 @@
         <v>147</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1595,7 +1597,7 @@
         <v>150</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1618,7 +1620,7 @@
         <v>150</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1687,7 +1689,7 @@
         <v>153</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1710,7 +1712,7 @@
         <v>154</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1756,7 +1758,7 @@
         <v>155</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1802,7 +1804,7 @@
         <v>157</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1825,7 +1827,7 @@
         <v>157</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1848,7 +1850,7 @@
         <v>157</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1917,7 +1919,7 @@
         <v>160</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1940,7 +1942,7 @@
         <v>160</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1963,7 +1965,7 @@
         <v>160</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>160</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2009,7 +2011,7 @@
         <v>161</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2032,7 +2034,7 @@
         <v>161</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2055,7 +2057,7 @@
         <v>161</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         <v>161</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2101,7 +2103,7 @@
         <v>161</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2124,7 +2126,7 @@
         <v>161</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>161</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2262,7 +2264,7 @@
         <v>164</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2285,7 +2287,7 @@
         <v>164</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2308,7 +2310,7 @@
         <v>162</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2354,7 +2356,7 @@
         <v>165</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2377,7 +2379,7 @@
         <v>166</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2400,7 +2402,7 @@
         <v>166</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2423,7 +2425,7 @@
         <v>166</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2446,7 +2448,7 @@
         <v>166</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2469,7 +2471,7 @@
         <v>167</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2492,7 +2494,7 @@
         <v>167</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>167</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2538,7 +2540,7 @@
         <v>168</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>168</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2584,7 +2586,7 @@
         <v>168</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2607,7 +2609,7 @@
         <v>169</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2630,7 +2632,7 @@
         <v>169</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2653,7 +2655,7 @@
         <v>169</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2676,7 +2678,7 @@
         <v>169</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2699,7 +2701,7 @@
         <v>169</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>170</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2745,7 +2747,7 @@
         <v>170</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2768,7 +2770,7 @@
         <v>170</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2791,7 +2793,7 @@
         <v>171</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2814,7 +2816,7 @@
         <v>171</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>172</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2860,7 +2862,7 @@
         <v>172</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>172</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2906,7 +2908,7 @@
         <v>172</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2929,7 +2931,7 @@
         <v>172</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2952,7 +2954,7 @@
         <v>173</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2975,7 +2977,7 @@
         <v>173</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>173</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3021,7 +3023,7 @@
         <v>173</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>173</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3067,7 +3069,7 @@
         <v>173</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3090,7 +3092,7 @@
         <v>174</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3113,7 +3115,7 @@
         <v>174</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3133,7 +3135,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3155,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
         <v>261</v>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62486B-DA1D-4193-8F7C-F4C1B961C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3981CD2F-F295-4E5B-827A-A96AA6EB134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
@@ -1383,16 +1383,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="38.25" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1462,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1485,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1508,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1531,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1554,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1577,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1600,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1623,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1692,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1715,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1738,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1761,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1784,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1922,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1945,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1968,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1991,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -2014,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2037,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -2060,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2083,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2106,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2129,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2152,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2175,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2198,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2221,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2244,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2267,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2290,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2313,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2336,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2359,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2382,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2405,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2428,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2451,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2474,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2497,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2520,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2543,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2566,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2589,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2612,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2635,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2658,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2681,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -2704,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -2727,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -2750,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -2773,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -2796,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -2819,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -2842,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -2865,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -2888,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -2911,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -2934,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -2957,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -2980,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -3003,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -3026,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -3049,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -3072,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -3095,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -3118,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3981CD2F-F295-4E5B-827A-A96AA6EB134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99766F-4CE6-49FC-B156-941D09892879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="394">
   <si>
     <t>id</t>
   </si>
@@ -66,845 +66,1363 @@
     <t>Nagant M1895</t>
   </si>
   <si>
+    <t>Nagant M1895 Deadeye</t>
+  </si>
+  <si>
+    <t>Nagant M1895 Silencer</t>
+  </si>
+  <si>
+    <t>Caldwell Conversion Pistol</t>
+  </si>
+  <si>
+    <t>Romero 77 Handcannon</t>
+  </si>
+  <si>
+    <t>Romero 77</t>
+  </si>
+  <si>
+    <t>Romero 77 Talon</t>
+  </si>
+  <si>
+    <t>Romero 77 Hatchet</t>
+  </si>
+  <si>
+    <t>Springfield 1866 Compact</t>
+  </si>
+  <si>
+    <t>Springfield 1866</t>
+  </si>
+  <si>
+    <t>Springfield 1866 Compact Deadeye</t>
+  </si>
+  <si>
+    <t>Springfield 1866 Compact Striker</t>
+  </si>
+  <si>
+    <t>Springfield 1866 Marksman</t>
+  </si>
+  <si>
+    <t>Hand Crossbow</t>
+  </si>
+  <si>
+    <t>Winfield M1873C Vandal</t>
+  </si>
+  <si>
+    <t>Winfield M1873C</t>
+  </si>
+  <si>
+    <t>Winfield M1873C Vandal Striker</t>
+  </si>
+  <si>
+    <t>Winfield M1873C Vandal Deadeye</t>
+  </si>
+  <si>
+    <t>Winfield M1873C Silencer</t>
+  </si>
+  <si>
+    <t>Winfield M1873C Marksman</t>
+  </si>
+  <si>
+    <t>Cavalry Saber</t>
+  </si>
+  <si>
+    <t>Nagant M1895 Officer</t>
+  </si>
+  <si>
+    <t>Nagant M1895 Officer Brawler</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Winfield M1873</t>
+  </si>
+  <si>
+    <t>Winfield M1873 Aperture</t>
+  </si>
+  <si>
+    <t>Winfield M1873 Talon</t>
+  </si>
+  <si>
+    <t>Winfield M1873 Swift</t>
+  </si>
+  <si>
+    <t>Winfield M1873 Musket Bayonet</t>
+  </si>
+  <si>
+    <t>Caldwell Rival 78 Handcannon</t>
+  </si>
+  <si>
+    <t>Caldwell Rival 78</t>
+  </si>
+  <si>
+    <t>LeMat Mark II Revolver</t>
+  </si>
+  <si>
+    <t>Caldwell Pax</t>
+  </si>
+  <si>
+    <t>Caldwell Pax Claw</t>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner</t>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Deadeye</t>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Bayonet</t>
+  </si>
+  <si>
+    <t>Martini-Henry IC1</t>
+  </si>
+  <si>
+    <t>Martini-Henry IC1 Deadeye</t>
+  </si>
+  <si>
+    <t>Martini-Henry IC1 Riposte</t>
+  </si>
+  <si>
+    <t>Martini-Henry IC1 Marksman</t>
+  </si>
+  <si>
+    <t>Sparks LRR</t>
+  </si>
+  <si>
+    <t>Sparks LRR Silencer</t>
+  </si>
+  <si>
+    <t>Sparks LRR Sniper</t>
+  </si>
+  <si>
+    <t>Nagant M1895 Officer Carbine</t>
+  </si>
+  <si>
+    <t>Nagant M1895 Officer Carbine Deadeye</t>
+  </si>
+  <si>
+    <t>Specter 1882 Compact</t>
+  </si>
+  <si>
+    <t>Specter 1882</t>
+  </si>
+  <si>
+    <t>Specter 1882 Bayonet</t>
+  </si>
+  <si>
+    <t>Bomb Lance</t>
+  </si>
+  <si>
+    <t>Bornheim No. 3</t>
+  </si>
+  <si>
+    <t>Bornheim No. 3 Match</t>
+  </si>
+  <si>
+    <t>Bornheim No. 3 Extended</t>
+  </si>
+  <si>
+    <t>Winfield M1876 Centennial</t>
+  </si>
+  <si>
+    <t>Winfield M1876 Centennial Sniper</t>
+  </si>
+  <si>
+    <t>Winfield 1887 Terminus Handcannon</t>
+  </si>
+  <si>
+    <t>Winfield 1887 Terminus</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Obrez</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Obrez Mace</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Obrez Drum</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Bayonet</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Sniper</t>
+  </si>
+  <si>
+    <t>Mosin-Nagant M1891 Avtomat</t>
+  </si>
+  <si>
+    <t>Lebel 1886</t>
+  </si>
+  <si>
+    <t>Lebel 1886 Talon</t>
+  </si>
+  <si>
+    <t>Lebel 1886 Marksman</t>
+  </si>
+  <si>
+    <t>Crown &amp; King Auto-5</t>
+  </si>
+  <si>
+    <t>Dolch 96</t>
+  </si>
+  <si>
+    <t>Dolch 96 Precision</t>
+  </si>
+  <si>
+    <t>Nitro Express Rifle</t>
+  </si>
+  <si>
+    <t>ammo_slot_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alert Trip Mine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blank Fire Decoys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choke Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Concertina Trip Mine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decoy Fuses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decoys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dusters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electric Lamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First Aid Kit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flare Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fuses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heavy Knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knuckle Knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison Trip Mine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quad Derringer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spyglass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Throwing Knives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_trap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_decoy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_throwable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_melee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_fuses</t>
+  </si>
+  <si>
+    <t>tool_knife</t>
+  </si>
+  <si>
+    <t>tool_light</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_aid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_gun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tool_spyglass</t>
+  </si>
+  <si>
+    <t>tool_spyglass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ammo Box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Antidote Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big Dynamite Bundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chaos Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Concertina Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dynamite Bundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dynamite Stick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fire Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flash Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frag Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hellfire Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hive Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Liquid Fire Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stamina Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sticky Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vitality Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Waxed Dynamite Stick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weak Antidote Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weak Stamina Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weak Vitality Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_ammo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_ammo_box</t>
+  </si>
+  <si>
+    <t>consumable_antidote_shot</t>
+  </si>
+  <si>
+    <t>consumable_chaos_bomb</t>
+  </si>
+  <si>
+    <t>consumable_concertina_bomb</t>
+  </si>
+  <si>
+    <t>consumable_dynamite_bundle</t>
+  </si>
+  <si>
+    <t>consumable_dynamite_stick</t>
+  </si>
+  <si>
+    <t>consumable_fire_bomb</t>
+  </si>
+  <si>
+    <t>consumable_flash_bomb</t>
+  </si>
+  <si>
+    <t>consumable_frag_bomb</t>
+  </si>
+  <si>
+    <t>consumable_hellfire_bomb</t>
+  </si>
+  <si>
+    <t>consumable_hive_bomb</t>
+  </si>
+  <si>
+    <t>consumable_poison_bomb</t>
+  </si>
+  <si>
+    <t>consumable_stamina_shot</t>
+  </si>
+  <si>
+    <t>consumable_sticky_bomb</t>
+  </si>
+  <si>
+    <t>consumable_vitality_shot</t>
+  </si>
+  <si>
+    <t>weapon_bomb_lance</t>
+  </si>
+  <si>
+    <t>weapon_bornheim_no_3</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_pax</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_rival_78</t>
+  </si>
+  <si>
+    <t>weapon_cavalry_saber</t>
+  </si>
+  <si>
+    <t>weapon_combat_axe</t>
+  </si>
+  <si>
+    <t>weapon_crossbow</t>
+  </si>
+  <si>
+    <t>weapon_crown_and_king_auto_5</t>
+  </si>
+  <si>
+    <t>weapon_dolch_96</t>
+  </si>
+  <si>
+    <t>weapon_hand_crossbow</t>
+  </si>
+  <si>
+    <t>weapon_lebel_1886</t>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver</t>
+  </si>
+  <si>
+    <t>weapon_machete</t>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer_carbine</t>
+  </si>
+  <si>
+    <t>weapon_nitro_express_rifle</t>
+  </si>
+  <si>
+    <t>weapon_romero_77</t>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr</t>
+  </si>
+  <si>
+    <t>weapon_specter_1882</t>
+  </si>
+  <si>
+    <t>weapon_springfield_1866</t>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner</t>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1876_centennial</t>
+  </si>
+  <si>
+    <t>weapon_bornheim_no_3_extended</t>
+  </si>
+  <si>
+    <t>weapon_bornheim_no_3_match</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_pax_claw</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_rival_78_handcannon</t>
+  </si>
+  <si>
+    <t>weapon_dolch_96_precision</t>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_marksman</t>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_talon</t>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_marksman</t>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_riposte</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_avtomat</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_bayonet</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_obrez</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_obrez_drum</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_obrez_mace</t>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_sniper</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer_brawler</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer_carbine_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_precision</t>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_silencer</t>
+  </si>
+  <si>
+    <t>weapon_romero_77_handcannon</t>
+  </si>
+  <si>
+    <t>weapon_romero_77_hatchet</t>
+  </si>
+  <si>
+    <t>weapon_romero_77_talon</t>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr_silencer</t>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr_sniper</t>
+  </si>
+  <si>
+    <t>weapon_specter_1882_bayonet</t>
+  </si>
+  <si>
+    <t>weapon_specter_1882_compact</t>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_compact</t>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_compact_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_compact_striker</t>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_marksman</t>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_bayonet</t>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus_handcannon</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_musket_bayonet</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_swift</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_talon</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_marksman</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_silencer</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_vandal</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_vandal_deadeye</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_vandal_striker</t>
+  </si>
+  <si>
+    <t>weapon_winfield_m1876_centennial_sniper</t>
+  </si>
+  <si>
+    <t>tool_alert_trip_mine</t>
+  </si>
+  <si>
+    <t>tool_blank_fire_decoys</t>
+  </si>
+  <si>
+    <t>tool_choke_bomb</t>
+  </si>
+  <si>
+    <t>tool_concertina_trip_mine</t>
+  </si>
+  <si>
+    <t>tool_decoy_fuses</t>
+  </si>
+  <si>
+    <t>tool_decoys</t>
+  </si>
+  <si>
+    <t>tool_dusters</t>
+  </si>
+  <si>
+    <t>tool_electric_lamp</t>
+  </si>
+  <si>
+    <t>tool_first_aid_kit</t>
+  </si>
+  <si>
+    <t>tool_flare_pistol</t>
+  </si>
+  <si>
+    <t>tool_heavy_knife</t>
+  </si>
+  <si>
+    <t>tool_knuckle_knife</t>
+  </si>
+  <si>
+    <t>tool_poison_trip_mine</t>
+  </si>
+  <si>
+    <t>tool_quad_derringer</t>
+  </si>
+  <si>
+    <t>tool_throwing_knives</t>
+  </si>
+  <si>
+    <t>consumable_heal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_explosive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_throwable_misc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Melee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Throwable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_big_dynamite_bundle</t>
+  </si>
+  <si>
+    <t>consumable_waxed_dynamite_stick</t>
+  </si>
+  <si>
+    <t>consumable_liquid_fire_bomb</t>
+  </si>
+  <si>
+    <t>consumable_weak_antidote_shot</t>
+  </si>
+  <si>
+    <t>consumable_weak_stamina_shot</t>
+  </si>
+  <si>
+    <t>consumable_weak_vitality_shot</t>
+  </si>
+  <si>
+    <t>Ammo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Explosive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ammo_vetterli_71_karabiner_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ammo_vetterli_71_karabiner_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>weapon_category_id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892 Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>New Army</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892 Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_chain_pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Caldwell Conversion Chain Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hunting Bow</t>
+  </si>
+  <si>
+    <t>Caldwell 92 New Army</t>
+  </si>
+  <si>
+    <t>Caldwell Conversion Uppercut</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_92_new_army</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_uppercut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hunting_bow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel 1886 Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero 77 Alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Nagant M1895 Precision</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Deadeye</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Silencer</t>
-  </si>
-  <si>
-    <t>Caldwell Conversion Pistol</t>
-  </si>
-  <si>
-    <t>Romero 77 Handcannon</t>
-  </si>
-  <si>
-    <t>Romero 77</t>
-  </si>
-  <si>
-    <t>Romero 77 Talon</t>
-  </si>
-  <si>
-    <t>Romero 77 Hatchet</t>
-  </si>
-  <si>
-    <t>Springfield 1866 Compact</t>
-  </si>
-  <si>
-    <t>Springfield 1866</t>
-  </si>
-  <si>
-    <t>Springfield 1866 Compact Deadeye</t>
-  </si>
-  <si>
-    <t>Springfield 1866 Compact Striker</t>
-  </si>
-  <si>
-    <t>Springfield 1866 Marksman</t>
-  </si>
-  <si>
-    <t>Hand Crossbow</t>
-  </si>
-  <si>
-    <t>Winfield M1873C Vandal</t>
-  </si>
-  <si>
-    <t>Winfield M1873C</t>
-  </si>
-  <si>
-    <t>Winfield M1873C Vandal Striker</t>
-  </si>
-  <si>
-    <t>Winfield M1873C Vandal Deadeye</t>
-  </si>
-  <si>
-    <t>Winfield M1873C Silencer</t>
-  </si>
-  <si>
-    <t>Winfield M1873C Marksman</t>
-  </si>
-  <si>
-    <t>Cavalry Saber</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Officer</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Officer Brawler</t>
-  </si>
-  <si>
-    <t>Crossbow</t>
-  </si>
-  <si>
-    <t>Winfield M1873</t>
-  </si>
-  <si>
-    <t>Winfield M1873 Aperture</t>
-  </si>
-  <si>
-    <t>Winfield M1873 Talon</t>
-  </si>
-  <si>
-    <t>Winfield M1873 Swift</t>
-  </si>
-  <si>
-    <t>Winfield M1873 Musket Bayonet</t>
-  </si>
-  <si>
-    <t>Caldwell Rival 78 Handcannon</t>
-  </si>
-  <si>
-    <t>Caldwell Rival 78</t>
-  </si>
-  <si>
-    <t>LeMat Mark II Revolver</t>
-  </si>
-  <si>
-    <t>Caldwell Pax</t>
-  </si>
-  <si>
-    <t>Caldwell Pax Claw</t>
-  </si>
-  <si>
-    <t>Vetterli 71 Karabiner</t>
-  </si>
-  <si>
-    <t>Vetterli 71 Karabiner Deadeye</t>
-  </si>
-  <si>
-    <t>Vetterli 71 Karabiner Bayonet</t>
-  </si>
-  <si>
-    <t>Martini-Henry IC1</t>
-  </si>
-  <si>
-    <t>Martini-Henry IC1 Deadeye</t>
-  </si>
-  <si>
-    <t>Martini-Henry IC1 Riposte</t>
-  </si>
-  <si>
-    <t>Martini-Henry IC1 Marksman</t>
-  </si>
-  <si>
-    <t>Sparks LRR</t>
-  </si>
-  <si>
-    <t>Sparks LRR Silencer</t>
-  </si>
-  <si>
-    <t>Sparks LRR Sniper</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Officer Carbine</t>
-  </si>
-  <si>
-    <t>Nagant M1895 Officer Carbine Deadeye</t>
-  </si>
-  <si>
-    <t>Specter 1882 Compact</t>
-  </si>
-  <si>
-    <t>Specter 1882</t>
-  </si>
-  <si>
-    <t>Specter 1882 Bayonet</t>
-  </si>
-  <si>
-    <t>Bomb Lance</t>
-  </si>
-  <si>
-    <t>Bornheim No. 3</t>
-  </si>
-  <si>
-    <t>Bornheim No. 3 Match</t>
-  </si>
-  <si>
-    <t>Bornheim No. 3 Extended</t>
-  </si>
-  <si>
-    <t>Winfield M1876 Centennial</t>
-  </si>
-  <si>
-    <t>Winfield M1876 Centennial Sniper</t>
-  </si>
-  <si>
-    <t>Winfield 1887 Terminus Handcannon</t>
-  </si>
-  <si>
-    <t>Winfield 1887 Terminus</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Obrez</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Obrez Mace</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Obrez Drum</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Bayonet</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Sniper</t>
-  </si>
-  <si>
-    <t>Mosin-Nagant M1891 Avtomat</t>
-  </si>
-  <si>
-    <t>Lebel 1886</t>
-  </si>
-  <si>
-    <t>Lebel 1886 Talon</t>
-  </si>
-  <si>
-    <t>Lebel 1886 Marksman</t>
-  </si>
-  <si>
-    <t>Crown &amp; King Auto-5</t>
-  </si>
-  <si>
-    <t>Dolch 96</t>
-  </si>
-  <si>
-    <t>Dolch 96 Precision</t>
-  </si>
-  <si>
-    <t>Nitro Express Rifle</t>
-  </si>
-  <si>
-    <t>ammo_slot_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Alert Trip Mine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Blank Fire Decoys</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Choke Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Concertina Trip Mine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decoy Fuses</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decoys</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dusters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Electric Lamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>First Aid Kit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flare Pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuses</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Heavy Knife</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Knife</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Knuckle Knife</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Poison Trip Mine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quad Derringer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spyglass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Throwing Knives</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_trap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_decoy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_throwable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_melee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_fuses</t>
-  </si>
-  <si>
-    <t>tool_knife</t>
-  </si>
-  <si>
-    <t>tool_light</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_aid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_gun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_spyglass</t>
-  </si>
-  <si>
-    <t>tool_spyglass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ammo Box</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Antidote Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Big Dynamite Bundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chaos Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Concertina Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dynamite Bundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dynamite Stick</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fire Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flash Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Frag Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hellfire Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hive Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Liquid Fire Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Poison Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stamina Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sticky Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vitality Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Waxed Dynamite Stick</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Weak Antidote Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Weak Stamina Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Weak Vitality Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_ammo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_ammo_box</t>
-  </si>
-  <si>
-    <t>consumable_antidote_shot</t>
-  </si>
-  <si>
-    <t>consumable_chaos_bomb</t>
-  </si>
-  <si>
-    <t>consumable_concertina_bomb</t>
-  </si>
-  <si>
-    <t>consumable_dynamite_bundle</t>
-  </si>
-  <si>
-    <t>consumable_dynamite_stick</t>
-  </si>
-  <si>
-    <t>consumable_fire_bomb</t>
-  </si>
-  <si>
-    <t>consumable_flash_bomb</t>
-  </si>
-  <si>
-    <t>consumable_frag_bomb</t>
-  </si>
-  <si>
-    <t>consumable_hellfire_bomb</t>
-  </si>
-  <si>
-    <t>consumable_hive_bomb</t>
-  </si>
-  <si>
-    <t>consumable_poison_bomb</t>
-  </si>
-  <si>
-    <t>consumable_stamina_shot</t>
-  </si>
-  <si>
-    <t>consumable_sticky_bomb</t>
-  </si>
-  <si>
-    <t>consumable_vitality_shot</t>
-  </si>
-  <si>
-    <t>weapon_bomb_lance</t>
-  </si>
-  <si>
-    <t>weapon_bornheim_no_3</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_conversion_pistol</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_pax</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_rival_78</t>
-  </si>
-  <si>
-    <t>weapon_cavalry_saber</t>
-  </si>
-  <si>
-    <t>weapon_combat_axe</t>
-  </si>
-  <si>
-    <t>weapon_crossbow</t>
-  </si>
-  <si>
-    <t>weapon_crown_and_king_auto_5</t>
-  </si>
-  <si>
-    <t>weapon_dolch_96</t>
-  </si>
-  <si>
-    <t>weapon_hand_crossbow</t>
-  </si>
-  <si>
-    <t>weapon_lebel_1886</t>
-  </si>
-  <si>
-    <t>weapon_lemat_mark_ii_revolver</t>
-  </si>
-  <si>
-    <t>weapon_machete</t>
-  </si>
-  <si>
-    <t>weapon_martini_henry_ic1</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_officer</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_officer_carbine</t>
-  </si>
-  <si>
-    <t>weapon_nitro_express_rifle</t>
-  </si>
-  <si>
-    <t>weapon_romero_77</t>
-  </si>
-  <si>
-    <t>weapon_sparks_lrr</t>
-  </si>
-  <si>
-    <t>weapon_specter_1882</t>
-  </si>
-  <si>
-    <t>weapon_springfield_1866</t>
-  </si>
-  <si>
-    <t>weapon_vetterli_71_karabiner</t>
-  </si>
-  <si>
-    <t>weapon_winfield_1887_terminus</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1876_centennial</t>
-  </si>
-  <si>
-    <t>weapon_bornheim_no_3_extended</t>
-  </si>
-  <si>
-    <t>weapon_bornheim_no_3_match</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_pax_claw</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_rival_78_handcannon</t>
-  </si>
-  <si>
-    <t>weapon_dolch_96_precision</t>
-  </si>
-  <si>
-    <t>weapon_lebel_1886_marksman</t>
-  </si>
-  <si>
-    <t>weapon_lebel_1886_talon</t>
-  </si>
-  <si>
-    <t>weapon_martini_henry_ic1_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_martini_henry_ic1_marksman</t>
-  </si>
-  <si>
-    <t>weapon_martini_henry_ic1_riposte</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_avtomat</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_bayonet</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_obrez</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_obrez_drum</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_obrez_mace</t>
-  </si>
-  <si>
-    <t>weapon_mosin_nagant_m1891_sniper</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_officer_brawler</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_officer_carbine_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_precision</t>
-  </si>
-  <si>
-    <t>weapon_nagant_m1895_silencer</t>
-  </si>
-  <si>
-    <t>weapon_romero_77_handcannon</t>
-  </si>
-  <si>
-    <t>weapon_romero_77_hatchet</t>
-  </si>
-  <si>
-    <t>weapon_romero_77_talon</t>
-  </si>
-  <si>
-    <t>weapon_sparks_lrr_silencer</t>
-  </si>
-  <si>
-    <t>weapon_sparks_lrr_sniper</t>
-  </si>
-  <si>
-    <t>weapon_specter_1882_bayonet</t>
-  </si>
-  <si>
-    <t>weapon_specter_1882_compact</t>
-  </si>
-  <si>
-    <t>weapon_springfield_1866_compact</t>
-  </si>
-  <si>
-    <t>weapon_springfield_1866_compact_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_springfield_1866_compact_striker</t>
-  </si>
-  <si>
-    <t>weapon_springfield_1866_marksman</t>
-  </si>
-  <si>
-    <t>weapon_vetterli_71_karabiner_bayonet</t>
-  </si>
-  <si>
-    <t>weapon_vetterli_71_karabiner_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_winfield_1887_terminus_handcannon</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873_aperture</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873_musket_bayonet</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873_swift</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873_talon</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c_marksman</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c_silencer</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c_vandal</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c_vandal_deadeye</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873c_vandal_striker</t>
-  </si>
-  <si>
-    <t>weapon_winfield_m1876_centennial_sniper</t>
-  </si>
-  <si>
-    <t>tool_alert_trip_mine</t>
-  </si>
-  <si>
-    <t>tool_blank_fire_decoys</t>
-  </si>
-  <si>
-    <t>tool_choke_bomb</t>
-  </si>
-  <si>
-    <t>tool_concertina_trip_mine</t>
-  </si>
-  <si>
-    <t>tool_decoy_fuses</t>
-  </si>
-  <si>
-    <t>tool_decoys</t>
-  </si>
-  <si>
-    <t>tool_dusters</t>
-  </si>
-  <si>
-    <t>tool_electric_lamp</t>
-  </si>
-  <si>
-    <t>tool_first_aid_kit</t>
-  </si>
-  <si>
-    <t>tool_flare_pistol</t>
-  </si>
-  <si>
-    <t>tool_heavy_knife</t>
-  </si>
-  <si>
-    <t>tool_knuckle_knife</t>
-  </si>
-  <si>
-    <t>tool_poison_trip_mine</t>
-  </si>
-  <si>
-    <t>tool_quad_derringer</t>
-  </si>
-  <si>
-    <t>tool_throwing_knives</t>
-  </si>
-  <si>
-    <t>consumable_heal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_explosive</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_throwable_misc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_fire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decoy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Light</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Melee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Throwable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Trap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_big_dynamite_bundle</t>
-  </si>
-  <si>
-    <t>consumable_waxed_dynamite_stick</t>
-  </si>
-  <si>
-    <t>consumable_liquid_fire_bomb</t>
-  </si>
-  <si>
-    <t>consumable_weak_antidote_shot</t>
-  </si>
-  <si>
-    <t>consumable_weak_stamina_shot</t>
-  </si>
-  <si>
-    <t>consumable_weak_vitality_shot</t>
-  </si>
-  <si>
-    <t>Ammo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Explosive</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Heal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Incendiary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FMJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ammo_vetterli_71_karabiner_incendiary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ammo_vetterli_71_karabiner_fmj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>weapon_category_id</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1893_slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield 1893 Slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conversion Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uppercut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rival</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dolch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeMat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant M1895</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nitro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Centennial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim Extended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim Match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conversion Chain Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pax Claw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rival Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dolch Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Avtomat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obrez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obrez Drum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obrez Mace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Carbine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Carbine Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Hatchet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_sparks_pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter Compact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact Striker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminus Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Musket Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal Striker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Centennial Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Throwing Axes</t>
+  </si>
+  <si>
+    <t>tool_throwing_axes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regeneration Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_regeneration_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_weak_regeneration_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weak Regeneration Shot</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -973,10 +1491,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}" name="テーブル1" displayName="テーブル1" ref="A1:G75" totalsRowShown="0">
-  <autoFilter ref="A1:G75" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
-    <sortCondition ref="A1:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}" name="テーブル1" displayName="テーブル1" ref="A1:G93" totalsRowShown="0">
+  <autoFilter ref="A1:G93" xr:uid="{556468E7-C156-4C1D-A904-E9509552ADF0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G93">
+    <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9DC508E2-45A8-48F1-982F-B4DAFEC7311D}" name="id"/>
@@ -1009,10 +1527,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}" name="テーブル13" displayName="テーブル13" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}" name="テーブル13" displayName="テーブル13" ref="A1:C35" totalsRowShown="0">
+  <autoFilter ref="A1:C35" xr:uid="{53520963-85B2-497E-96B8-108502AAACB4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2668D639-FFC3-46C5-9100-673C129D42F2}" name="id"/>
@@ -1024,8 +1542,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}" name="テーブル3" displayName="テーブル3" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}" name="テーブル3" displayName="テーブル3" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{4C6BC4AF-CCEC-4CEA-BF7F-A1AC9C4F903C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3FB9CF39-4A4A-476D-AC75-148000FBD738}" name="id"/>
     <tableColumn id="2" xr3:uid="{3D97AE95-4DF1-4C4E-8A7F-4D5A410E6A3C}" name="full_name"/>
@@ -1053,10 +1574,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}" name="テーブル35" displayName="テーブル35" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}" name="テーブル35" displayName="テーブル35" ref="A1:E24" totalsRowShown="0">
+  <autoFilter ref="A1:E24" xr:uid="{6544C1EF-2F02-4561-A44E-9FA21494489D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition ref="E1:E22"/>
+    <sortCondition ref="D1:D22"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7D421A52-B484-47CE-B10D-9CE2404B800F}" name="id"/>
@@ -1381,20 +1902,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1412,56 +1931,56 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="D3">
-        <v>201</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1469,22 +1988,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="D4">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1492,42 +2011,42 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1538,19 +2057,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1561,22 +2080,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1584,22 +2103,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1607,22 +2126,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="D10">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1630,91 +2149,91 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="D14">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1722,22 +2241,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="D15">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1745,19 +2264,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="D16">
-        <v>790</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1768,88 +2287,88 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c r="D18">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>437</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="D20">
-        <v>422</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1860,68 +2379,68 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="D21">
-        <v>95</v>
+        <v>750</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>790</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1929,22 +2448,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="D24">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1952,65 +2471,65 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="D26">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="D27">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2021,19 +2540,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="D28">
-        <v>1250</v>
+        <v>422</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2044,160 +2563,160 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="D29">
-        <v>540</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="D31">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
         <v>2</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="D32">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
         <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="D33">
-        <v>550</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>490</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2205,22 +2724,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>343</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>1250</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2228,22 +2747,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2251,22 +2770,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="D38">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2274,22 +2793,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>346</v>
       </c>
       <c r="D39">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2297,19 +2816,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2320,22 +2839,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>550</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2343,22 +2862,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="D42">
-        <v>1015</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2366,180 +2885,180 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="D45">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="D47">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="D48">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="D49">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="D50">
-        <v>188</v>
+        <v>1015</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -2550,45 +3069,45 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="D51">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="D52">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2596,22 +3115,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2619,19 +3138,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -2642,22 +3161,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>358</v>
       </c>
       <c r="D55">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2665,68 +3184,68 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="D57">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="D58">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2734,22 +3253,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="D59">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2757,22 +3276,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="D60">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2780,111 +3299,111 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="D61">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="D62">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>2</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="D63">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="D65">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2895,19 +3414,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="D66">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -2918,22 +3437,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2941,137 +3460,137 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>369</v>
       </c>
       <c r="D69">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
         <v>2</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="D73">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3079,19 +3598,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="D74">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -3102,24 +3621,438 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="D75">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77">
+        <v>150</v>
+      </c>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>324</v>
+      </c>
+      <c r="D78">
+        <v>309</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79">
+        <v>289</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80">
+        <v>250</v>
+      </c>
+      <c r="E80" t="s">
+        <v>297</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>326</v>
+      </c>
+      <c r="D81">
+        <v>75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84">
+        <v>128</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87">
+        <v>56</v>
+      </c>
+      <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88">
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>385</v>
+      </c>
+      <c r="D90">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91">
+        <v>39</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>173</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>173</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
         <v>1</v>
       </c>
     </row>
@@ -3159,44 +4092,44 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3210,10 +4143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD4DE2-0449-4D45-A184-1A352F0E2A91}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3224,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3235,321 +4168,376 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3563,11 +4551,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A40719F-CCE4-44A7-B269-AD8980D5404D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3591,313 +4577,330 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
-        <v>101</v>
+      <c r="E20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3936,90 +4939,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4033,16 +5036,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFA5AD-CA52-4628-BE8A-F6A3094FEB18}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4061,89 +5064,89 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>236</v>
@@ -4151,16 +5154,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>236</v>
@@ -4168,101 +5171,101 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>235</v>
@@ -4270,16 +5273,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>235</v>
@@ -4287,138 +5290,172 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4434,9 +5471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D404AD-48DD-4B7F-BC1F-812A5D25AD44}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4458,57 +5493,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99766F-4CE6-49FC-B156-941D09892879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAE74B-3A5F-4DB8-B44E-A9DFEE334B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
@@ -1223,30 +1223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Avtomat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bayonet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Obrez</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Obrez Drum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Obrez Mace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sniper</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nagant Deadeye</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1423,6 +1399,30 @@
   </si>
   <si>
     <t>Weak Regeneration Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Avtomat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez Drum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez Mace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Sniper</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1904,7 +1904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2730,7 +2732,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="D36">
         <v>1250</v>
@@ -2753,7 +2755,7 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="D37">
         <v>540</v>
@@ -2776,7 +2778,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="D38">
         <v>290</v>
@@ -2799,7 +2801,7 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="D39">
         <v>350</v>
@@ -2822,7 +2824,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="D40">
         <v>310</v>
@@ -2845,7 +2847,7 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="D41">
         <v>550</v>
@@ -2891,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -2937,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D45">
         <v>110</v>
@@ -2960,7 +2962,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D46">
         <v>155</v>
@@ -2983,7 +2985,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D47">
         <v>211</v>
@@ -3006,7 +3008,7 @@
         <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D48">
         <v>29</v>
@@ -3029,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D49">
         <v>53</v>
@@ -3098,7 +3100,7 @@
         <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D52">
         <v>98</v>
@@ -3121,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D53">
         <v>26</v>
@@ -3144,7 +3146,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D54">
         <v>62</v>
@@ -3167,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D55">
         <v>59</v>
@@ -3213,7 +3215,7 @@
         <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D57">
         <v>92</v>
@@ -3236,7 +3238,7 @@
         <v>288</v>
       </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D58">
         <v>85</v>
@@ -3259,7 +3261,7 @@
         <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D59">
         <v>108</v>
@@ -3282,7 +3284,7 @@
         <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D60">
         <v>95</v>
@@ -3322,13 +3324,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D62">
         <v>155</v>
@@ -3351,7 +3353,7 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D63">
         <v>150</v>
@@ -3374,7 +3376,7 @@
         <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D64">
         <v>199</v>
@@ -3420,7 +3422,7 @@
         <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D66">
         <v>223</v>
@@ -3443,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D67">
         <v>164</v>
@@ -3489,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D69">
         <v>33</v>
@@ -3512,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D70">
         <v>46</v>
@@ -3535,7 +3537,7 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D71">
         <v>56</v>
@@ -3558,7 +3560,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D72">
         <v>73</v>
@@ -3604,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D74">
         <v>155</v>
@@ -3627,7 +3629,7 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D75">
         <v>130</v>
@@ -3650,7 +3652,7 @@
         <v>294</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D76">
         <v>190</v>
@@ -3673,7 +3675,7 @@
         <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D77">
         <v>150</v>
@@ -3719,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D79">
         <v>289</v>
@@ -3788,7 +3790,7 @@
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D82">
         <v>80</v>
@@ -3811,7 +3813,7 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D83">
         <v>137</v>
@@ -3834,7 +3836,7 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D84">
         <v>128</v>
@@ -3857,7 +3859,7 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D85">
         <v>100</v>
@@ -3903,7 +3905,7 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D87">
         <v>56</v>
@@ -3926,7 +3928,7 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D88">
         <v>55</v>
@@ -3949,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -3972,7 +3974,7 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D90">
         <v>45</v>
@@ -3995,7 +3997,7 @@
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D91">
         <v>39</v>
@@ -4041,7 +4043,7 @@
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D93">
         <v>229</v>
@@ -4871,13 +4873,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -5426,13 +5428,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D23">
         <v>110</v>
@@ -5443,13 +5445,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D24">
         <v>65</v>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAE74B-3A5F-4DB8-B44E-A9DFEE334B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CEBD3-020B-4271-8151-07A546684D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="491">
   <si>
     <t>id</t>
   </si>
@@ -880,549 +880,938 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ammo_vetterli_71_karabiner_incendiary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ammo_vetterli_71_karabiner_fmj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category_id</t>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892 Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>New Army</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Mle 1892 Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_chain_pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Caldwell Conversion Chain Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hunting Bow</t>
+  </si>
+  <si>
+    <t>Caldwell 92 New Army</t>
+  </si>
+  <si>
+    <t>Caldwell Conversion Uppercut</t>
+  </si>
+  <si>
+    <t>weapon_caldwell_92_new_army</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_uppercut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hunting_bow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel 1886 Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero 77 Alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant M1895 Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Model 3 Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli 71 Karabiner Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1893_slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield 1893 Slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conversion Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uppercut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rival</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dolch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeMat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant M1895</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nitro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Centennial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Berthier Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim Extended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bornheim Match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conversion Chain Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pax Claw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rival Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dolch Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lebel Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martini Riposte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Carbine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officer Carbine Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagant Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Alamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Hatchet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Romero Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Brawler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Spitfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottfield Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_sparks_pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparks Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specter Compact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Compact Striker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springfield Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vetterli Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminus Handcannon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Aperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Musket Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield Talon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Marksman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Silencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal Deadeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winfield C Vandal Striker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Centennial Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Throwing Axes</t>
+  </si>
+  <si>
+    <t>tool_throwing_axes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regeneration Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_regeneration_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consumable_weak_regeneration_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weak Regeneration Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Avtomat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Bayonet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez Drum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Obrez Mace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mosin Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>weapon_category_id</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier Mle 1892</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier Mle 1892 Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>New Army</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_berthier_mle_1892</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_berthier_mle_1892_deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_berthier_mle_1892_riposte</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier Mle 1892 Riposte</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_caldwell_conversion_chain_pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Caldwell Conversion Chain Pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hunting Bow</t>
-  </si>
-  <si>
-    <t>Caldwell 92 New Army</t>
-  </si>
-  <si>
-    <t>Caldwell Conversion Uppercut</t>
-  </si>
-  <si>
-    <t>weapon_caldwell_92_new_army</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_caldwell_conversion_pistol_uppercut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_hunting_bow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_winfield_m1873_aperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_lebel_1886_aperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lebel 1886 Aperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_romero_77_alamo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero 77 Alamo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_scottfield_model_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Model 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Model 3 Brawler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_scottfield_model_3_brawler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_scottfield_model_3_precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant M1895 Precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Model 3 Precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_scottfield_model_3_spitfire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Model 3 Spitfire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_scottfield_model_3_swift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Model 3 Swift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_vetterli_71_karabiner_marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli 71 Karabiner Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_vetterli_71_karabiner_silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli 71 Karabiner Silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_winfield_1893_slate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield 1893 Slate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bornheim</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Conversion Pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Uppercut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pax</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rival</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Axe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Auto-5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dolch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lebel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LeMat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Martini</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant M1895</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Officer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nitro</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Specter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springfield</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Terminus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Centennial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Berthier Riposte</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bornheim Extended</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bornheim Match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Conversion Chain Pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pax Claw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rival Handcannon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dolch Precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lebel Aperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lebel Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lebel Talon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Martini Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Martini Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Martini Riposte</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Officer Brawler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Officer Carbine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Officer Carbine Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant Precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nagant Silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero Alamo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero Handcannon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero Hatchet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Romero Talon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Brawler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Precision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Spitfire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scottfield Swift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparks Pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weapon_sparks_pistol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparks Silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparks Sniper</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Specter Bayonet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Specter Compact</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springfield Compact</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springfield Compact Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springfield Compact Striker</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springfield Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli Bayonet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vetterli Silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Terminus Handcannon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield Aperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield Musket Bayonet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield Swift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield Talon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C Marksman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C Silencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C Vandal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C Vandal Deadeye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Winfield C Vandal Striker</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Centennial Sniper</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Throwing Axes</t>
-  </si>
-  <si>
-    <t>tool_throwing_axes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Regeneration Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_regeneration_shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>consumable_weak_regeneration_shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Weak Regeneration Shot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Avtomat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Bayonet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Obrez</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Obrez Drum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Obrez Mace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mosin Sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spitzer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DumDum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flechette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Penny Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shell - Slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shell - Dragon Breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compact - FMJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shell - Star Shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compact - Incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shredder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dragon Breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Star Shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shot Bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chaos Bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison Bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choke Bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Concertina Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poison Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frag Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_spitzer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_berthier_mle_1892_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_bornheim_no_3_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_uppercut_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_pax_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_incendiary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hand_crossbow_chaos_bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hand_crossbow_choke_bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hunting_bow_concertina_arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Explosive Bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_crossbow_explosive_bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_dragon_breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_specter_1882_dragon_breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus_dragon_breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_92_new_army_dumdum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_dumdum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_pax_dumdum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_dumdum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_uppercut_explosive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_explosive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_springfield_1866_explosive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_rival_78_flechette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_specter_1882_flechette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus_flechette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_92_new_army_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_conversion_pistol_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_martini_henry_ic1_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_scottfield_model_3_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1876_centennial_fmj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hunting_bow_frag_arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_bornheim_no_3_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_vetterli_71_karabiner_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1873c_high_velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_rival_78_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_crown_and_king_auto_5_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_specter_1882_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1893_slate_penny_shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nagant_m1895_officer_poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_sparks_lrr_poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_m1876_centennial_poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hunting_bow_poison_arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_hand_crossbow_poison_bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver_dragon_breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lemat_mark_ii_revolver_star_shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_crossbow_shot_bolt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nitro_express_rifle_shredder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_caldwell_rival_78_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_crown_and_king_auto_5_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_specter_1882_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1887_terminus_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_winfield_1893_slate_slug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_lebel_1886_spitzer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_mosin_nagant_m1891_spitzer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_romero_77_star_shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon_nitro_express_rifle_explosive</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1510,17 +1899,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD7B2A19-D7DF-4F06-A4C0-5B19139149B3}" name="テーブル18" displayName="テーブル18" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{AD7B2A19-D7DF-4F06-A4C0-5B19139149B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
-    <sortCondition ref="A1:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5812A110-085A-4F19-A59C-5B37DCD74BA2}" name="テーブル131011" displayName="テーブル131011" ref="A1:E76" totalsRowShown="0">
+  <autoFilter ref="A1:E76" xr:uid="{5812A110-085A-4F19-A59C-5B37DCD74BA2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E76">
+    <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E1142FE7-FFCA-482C-8FD5-A13703CD2265}" name="id"/>
-    <tableColumn id="2" xr3:uid="{F1E046AA-4DA8-46AF-A112-E5DCA8C4880C}" name="full_name"/>
-    <tableColumn id="7" xr3:uid="{725818D3-EFD2-4911-91B4-C46826BD19D2}" name="short_name"/>
-    <tableColumn id="3" xr3:uid="{3A3252D4-CB74-42A1-ACB2-8B4BCDA68022}" name="cost"/>
-    <tableColumn id="5" xr3:uid="{C5AA4A23-4561-42EC-A805-E2697B7A514F}" name="weapon_category_id"/>
+    <tableColumn id="1" xr3:uid="{D9314D9D-9E0B-4FE9-A515-6922C16035DF}" name="id"/>
+    <tableColumn id="2" xr3:uid="{36B5A193-BBB4-4355-82DE-E6D4BDE64300}" name="full_name"/>
+    <tableColumn id="7" xr3:uid="{AE42E17D-3933-4B23-9918-A1C2C04B9E22}" name="short_name"/>
+    <tableColumn id="3" xr3:uid="{DCB0C1BF-4077-4395-BD85-848E7349F15E}" name="cost"/>
+    <tableColumn id="4" xr3:uid="{21C86688-14B1-4AF3-A48C-F20CE1C4469C}" name="weapon_category_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1904,9 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1933,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
         <v>78</v>
@@ -1944,19 +2331,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D2">
         <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1967,19 +2354,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D3">
         <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1990,19 +2377,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D4">
         <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2042,7 +2429,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D6">
         <v>201</v>
@@ -2065,7 +2452,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D7">
         <v>306</v>
@@ -2088,7 +2475,7 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D8">
         <v>224</v>
@@ -2105,19 +2492,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D9">
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2134,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -2151,13 +2538,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -2174,19 +2561,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D12">
         <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2203,7 +2590,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -2226,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D14">
         <v>125</v>
@@ -2249,7 +2636,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -2272,7 +2659,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D16">
         <v>85</v>
@@ -2295,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -2318,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2364,7 +2751,7 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D20">
         <v>600</v>
@@ -2387,7 +2774,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D21">
         <v>750</v>
@@ -2399,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -2410,7 +2797,7 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D22">
         <v>790</v>
@@ -2422,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2450,19 +2837,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D24">
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2479,7 +2866,7 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D25">
         <v>397</v>
@@ -2496,13 +2883,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D26">
         <v>425</v>
@@ -2525,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D27">
         <v>437</v>
@@ -2548,7 +2935,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D28">
         <v>422</v>
@@ -2571,7 +2958,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D29">
         <v>95</v>
@@ -2583,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2617,7 +3004,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D31">
         <v>122</v>
@@ -2640,7 +3027,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D32">
         <v>145</v>
@@ -2663,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D33">
         <v>173</v>
@@ -2686,7 +3073,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D34">
         <v>164</v>
@@ -2709,7 +3096,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D35">
         <v>490</v>
@@ -2732,7 +3119,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D36">
         <v>1250</v>
@@ -2755,7 +3142,7 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D37">
         <v>540</v>
@@ -2778,7 +3165,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D38">
         <v>290</v>
@@ -2801,7 +3188,7 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D39">
         <v>350</v>
@@ -2824,7 +3211,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D40">
         <v>310</v>
@@ -2847,7 +3234,7 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D41">
         <v>550</v>
@@ -2870,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D42">
         <v>24</v>
@@ -2893,7 +3280,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -2916,7 +3303,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D44">
         <v>96</v>
@@ -2939,7 +3326,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D45">
         <v>110</v>
@@ -2962,7 +3349,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D46">
         <v>155</v>
@@ -2985,7 +3372,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D47">
         <v>211</v>
@@ -3005,10 +3392,10 @@
         <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D48">
         <v>29</v>
@@ -3031,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D49">
         <v>53</v>
@@ -3054,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D50">
         <v>1015</v>
@@ -3077,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D51">
         <v>34</v>
@@ -3094,13 +3481,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D52">
         <v>98</v>
@@ -3123,7 +3510,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D53">
         <v>26</v>
@@ -3146,7 +3533,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D54">
         <v>62</v>
@@ -3169,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D55">
         <v>59</v>
@@ -3186,19 +3573,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D56">
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3209,19 +3596,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D57">
         <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3232,19 +3619,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D58">
         <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3255,19 +3642,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D59">
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3278,19 +3665,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D60">
         <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3307,7 +3694,7 @@
         <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D61">
         <v>130</v>
@@ -3324,13 +3711,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D62">
         <v>155</v>
@@ -3353,7 +3740,7 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D63">
         <v>150</v>
@@ -3376,7 +3763,7 @@
         <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D64">
         <v>199</v>
@@ -3399,7 +3786,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D65">
         <v>188</v>
@@ -3422,7 +3809,7 @@
         <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D66">
         <v>223</v>
@@ -3445,7 +3832,7 @@
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D67">
         <v>164</v>
@@ -3468,7 +3855,7 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D68">
         <v>38</v>
@@ -3491,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D69">
         <v>33</v>
@@ -3514,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D70">
         <v>46</v>
@@ -3537,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D71">
         <v>56</v>
@@ -3560,7 +3947,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D72">
         <v>73</v>
@@ -3583,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D73">
         <v>105</v>
@@ -3606,7 +3993,7 @@
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D74">
         <v>155</v>
@@ -3629,7 +4016,7 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D75">
         <v>130</v>
@@ -3646,13 +4033,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D76">
         <v>190</v>
@@ -3669,13 +4056,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D77">
         <v>150</v>
@@ -3698,7 +4085,7 @@
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D78">
         <v>309</v>
@@ -3721,7 +4108,7 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D79">
         <v>289</v>
@@ -3738,19 +4125,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D80">
         <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -3767,7 +4154,7 @@
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D81">
         <v>75</v>
@@ -3784,13 +4171,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D82">
         <v>80</v>
@@ -3813,7 +4200,7 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D83">
         <v>137</v>
@@ -3836,7 +4223,7 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D84">
         <v>128</v>
@@ -3859,7 +4246,7 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D85">
         <v>100</v>
@@ -3882,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D86">
         <v>41</v>
@@ -3905,7 +4292,7 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D87">
         <v>56</v>
@@ -3928,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D88">
         <v>55</v>
@@ -3951,7 +4338,7 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -3974,7 +4361,7 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D90">
         <v>45</v>
@@ -3997,7 +4384,7 @@
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D91">
         <v>39</v>
@@ -4020,7 +4407,7 @@
         <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D92">
         <v>157</v>
@@ -4043,7 +4430,7 @@
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D93">
         <v>229</v>
@@ -4069,23 +4456,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7194F133-81D3-48C7-8CF0-3EF4AEFCDC5A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4094,15 +4479,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>254</v>
@@ -4111,27 +4496,1268 @@
         <v>254</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>255</v>
       </c>
-      <c r="D3">
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28">
+        <v>220</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>488</v>
+      </c>
+      <c r="B38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" t="s">
+        <v>392</v>
+      </c>
+      <c r="D38">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>459</v>
+      </c>
+      <c r="B39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D39">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>460</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>483</v>
+      </c>
+      <c r="B47" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>452</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>436</v>
+      </c>
+      <c r="B54" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" t="s">
+        <v>405</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>446</v>
+      </c>
+      <c r="B55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>484</v>
+      </c>
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>441</v>
+      </c>
+      <c r="B58" t="s">
+        <v>394</v>
+      </c>
+      <c r="C58" t="s">
+        <v>394</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>444</v>
+      </c>
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>453</v>
+      </c>
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>461</v>
+      </c>
+      <c r="B61" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>437</v>
+      </c>
+      <c r="B63" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" t="s">
+        <v>405</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>447</v>
+      </c>
+      <c r="B64" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" t="s">
+        <v>397</v>
+      </c>
+      <c r="C65" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>485</v>
+      </c>
+      <c r="B66" t="s">
+        <v>395</v>
+      </c>
+      <c r="C66" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>469</v>
+      </c>
+      <c r="B67" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" t="s">
+        <v>397</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>486</v>
+      </c>
+      <c r="B68" t="s">
+        <v>395</v>
+      </c>
+      <c r="C68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>462</v>
+      </c>
+      <c r="B70" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>455</v>
+      </c>
+      <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>428</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>473</v>
+      </c>
+      <c r="B76" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" t="s">
+        <v>407</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4147,9 +5773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD4DE2-0449-4D45-A184-1A352F0E2A91}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4159,7 +5783,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4170,13 +5794,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -4198,18 +5822,18 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -4220,18 +5844,18 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -4242,7 +5866,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4253,7 +5877,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -4264,7 +5888,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4275,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -4297,7 +5921,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -4308,7 +5932,7 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -4324,13 +5948,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -4341,7 +5965,7 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -4352,7 +5976,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -4374,7 +5998,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -4385,7 +6009,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -4393,10 +6017,10 @@
         <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -4407,7 +6031,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -4418,7 +6042,7 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -4429,18 +6053,18 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -4451,7 +6075,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -4462,7 +6086,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -4473,7 +6097,7 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -4484,7 +6108,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -4495,18 +6119,18 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -4517,7 +6141,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -4528,7 +6152,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -4539,7 +6163,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -4873,13 +6497,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -4918,9 +6542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20EB0D6-A63A-4D0E-9024-0E89563F89B3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5040,9 +6662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFA5AD-CA52-4628-BE8A-F6A3094FEB18}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5066,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -5428,13 +7048,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D23">
         <v>110</v>
@@ -5445,13 +7065,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D24">
         <v>65</v>

--- a/priv/repo/seed_data/cutdown_data.xlsx
+++ b/priv/repo/seed_data/cutdown_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\delta\VSCodeProjects\Elixir\hunt_cutdown\priv\repo\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CEBD3-020B-4271-8151-07A546684D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C0A615-B738-4079-AC9C-4E6DF1A4F7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CFAAF1BE-5F0A-4BF6-8FA8-DA56725A7889}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" r:id="rId1"/>
@@ -2293,7 +2293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA7AA3-F1C6-4BE5-AC87-BE482E377C23}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3289,7 +3291,7 @@
         <v>161</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>1</v>
